--- a/Elecciones 11 Abril 2021/Archivos para convertir/BD Candidatos 11 abril_OG.xlsx
+++ b/Elecciones 11 Abril 2021/Archivos para convertir/BD Candidatos 11 abril_OG.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinamario/DATA INTELLIGENCE Dropbox/Diseño DATA's/DATA-ELECCIONES/Elecciones 11 Abril 2021/Archivos para convertir/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ELECCIONES\Elecciones 11 Abril 2021\Archivos para convertir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA0747D-F97B-1644-8B9B-E6175D062870}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8780EFE7-6F02-44DD-A06B-2F288AF4B52E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{052666CC-6C09-4D3A-A79C-A0D9F65D5199}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="15480" xr2:uid="{052666CC-6C09-4D3A-A79C-A0D9F65D5199}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="BD_Candidatos" sheetId="1" r:id="rId1"/>
+    <sheet name="Diccionario" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7370" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7472" uniqueCount="1065">
   <si>
     <t>Tipo de Elección</t>
   </si>
@@ -3138,7 +3139,133 @@
     <t>EVA FELIPA CHANG CHAMBE</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>GORE</t>
+  </si>
+  <si>
+    <t>Gobernador Regional</t>
+  </si>
+  <si>
+    <t>LISTA</t>
+  </si>
+  <si>
+    <t>SUB PACTO</t>
+  </si>
+  <si>
+    <t>PARTIDO</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARTIDO COMUNISTA E INDEPENDIENTES </t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARTIDO FEDERACION REGIONALISTA VERDE SOCIAL E INDEPENDIENTES </t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A21</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVOPOLI - INDEPENDIENTES </t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>PRI E INDEPENDIENTES</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B21</t>
+  </si>
+  <si>
+    <t>B20</t>
+  </si>
+  <si>
+    <t>RENOVACION NACIONAL - INDEPENDIENTES</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B31</t>
+  </si>
+  <si>
+    <t>B30</t>
+  </si>
+  <si>
+    <t>UDI - INDEPENDIENTES</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B41</t>
+  </si>
+  <si>
+    <t>B40</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Partido Unión Patriótica</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -3226,7 +3353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3272,6 +3399,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="15"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3814,24 +3944,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1540D1E0-3606-40E5-885B-C8DAF35AE8EB}">
   <dimension ref="A1:I922"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G874" sqref="G874"/>
+    <sheetView tabSelected="1" topLeftCell="A819" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I928" sqref="I928"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="29.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="39.1640625" style="4" customWidth="1"/>
+    <col min="1" max="2" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="39.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3860,7 +3989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -3887,7 +4016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -3914,7 +4043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -3941,7 +4070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -3968,7 +4097,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -3995,7 +4124,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -4022,7 +4151,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -4049,7 +4178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -4076,7 +4205,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -4103,7 +4232,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -4130,7 +4259,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -4157,7 +4286,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -4184,7 +4313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -4211,7 +4340,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -4238,7 +4367,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -4265,7 +4394,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -4292,7 +4421,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
@@ -4319,7 +4448,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -4346,7 +4475,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -4373,7 +4502,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
@@ -4400,7 +4529,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
@@ -4427,7 +4556,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
@@ -4454,7 +4583,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
@@ -4481,7 +4610,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
@@ -4508,7 +4637,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
@@ -4535,7 +4664,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
@@ -4562,7 +4691,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
@@ -4589,7 +4718,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -4616,7 +4745,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
@@ -4643,7 +4772,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>7</v>
       </c>
@@ -4670,7 +4799,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
@@ -4697,7 +4826,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>7</v>
       </c>
@@ -4724,7 +4853,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>7</v>
       </c>
@@ -4751,7 +4880,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>7</v>
       </c>
@@ -4778,7 +4907,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>7</v>
       </c>
@@ -4805,7 +4934,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>7</v>
       </c>
@@ -4832,7 +4961,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>7</v>
       </c>
@@ -4859,7 +4988,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>7</v>
       </c>
@@ -4886,7 +5015,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
@@ -4913,7 +5042,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>7</v>
       </c>
@@ -4940,7 +5069,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>7</v>
       </c>
@@ -4967,7 +5096,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>7</v>
       </c>
@@ -4994,7 +5123,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>7</v>
       </c>
@@ -5021,7 +5150,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>7</v>
       </c>
@@ -5048,7 +5177,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>7</v>
       </c>
@@ -5075,7 +5204,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>7</v>
       </c>
@@ -5102,7 +5231,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>7</v>
       </c>
@@ -5129,7 +5258,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>7</v>
       </c>
@@ -5156,7 +5285,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>7</v>
       </c>
@@ -5183,7 +5312,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>7</v>
       </c>
@@ -5210,7 +5339,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>7</v>
       </c>
@@ -5237,7 +5366,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>7</v>
       </c>
@@ -5264,7 +5393,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>7</v>
       </c>
@@ -5291,7 +5420,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>7</v>
       </c>
@@ -5318,7 +5447,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>7</v>
       </c>
@@ -5345,7 +5474,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>7</v>
       </c>
@@ -5372,7 +5501,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>7</v>
       </c>
@@ -5399,7 +5528,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>7</v>
       </c>
@@ -5426,7 +5555,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>7</v>
       </c>
@@ -5453,7 +5582,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>7</v>
       </c>
@@ -5480,7 +5609,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>7</v>
       </c>
@@ -5507,7 +5636,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>7</v>
       </c>
@@ -5534,7 +5663,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>7</v>
       </c>
@@ -5561,7 +5690,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>7</v>
       </c>
@@ -5588,7 +5717,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>7</v>
       </c>
@@ -5615,7 +5744,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>7</v>
       </c>
@@ -5642,7 +5771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>7</v>
       </c>
@@ -5669,7 +5798,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>7</v>
       </c>
@@ -5696,7 +5825,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>7</v>
       </c>
@@ -5723,7 +5852,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>7</v>
       </c>
@@ -5750,7 +5879,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>7</v>
       </c>
@@ -5777,7 +5906,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>7</v>
       </c>
@@ -5804,7 +5933,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>7</v>
       </c>
@@ -5831,7 +5960,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>7</v>
       </c>
@@ -5885,7 +6014,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>7</v>
       </c>
@@ -5912,7 +6041,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>7</v>
       </c>
@@ -5939,7 +6068,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>7</v>
       </c>
@@ -5966,7 +6095,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>7</v>
       </c>
@@ -5993,7 +6122,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>7</v>
       </c>
@@ -6019,7 +6148,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>7</v>
       </c>
@@ -6045,7 +6174,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>7</v>
       </c>
@@ -6071,7 +6200,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>7</v>
       </c>
@@ -6097,7 +6226,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>7</v>
       </c>
@@ -6123,7 +6252,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>7</v>
       </c>
@@ -6149,7 +6278,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>7</v>
       </c>
@@ -6175,7 +6304,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>7</v>
       </c>
@@ -6201,7 +6330,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>7</v>
       </c>
@@ -6227,7 +6356,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>7</v>
       </c>
@@ -6253,7 +6382,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>7</v>
       </c>
@@ -6280,7 +6409,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>7</v>
       </c>
@@ -6306,7 +6435,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>7</v>
       </c>
@@ -6332,7 +6461,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>7</v>
       </c>
@@ -6358,7 +6487,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>7</v>
       </c>
@@ -6384,7 +6513,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>7</v>
       </c>
@@ -6410,7 +6539,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>7</v>
       </c>
@@ -6436,7 +6565,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>7</v>
       </c>
@@ -6462,7 +6591,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>7</v>
       </c>
@@ -6488,7 +6617,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>7</v>
       </c>
@@ -6514,7 +6643,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>7</v>
       </c>
@@ -6540,7 +6669,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>7</v>
       </c>
@@ -6566,7 +6695,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>7</v>
       </c>
@@ -6592,7 +6721,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>7</v>
       </c>
@@ -6618,7 +6747,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>7</v>
       </c>
@@ -6644,7 +6773,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>7</v>
       </c>
@@ -6670,7 +6799,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>7</v>
       </c>
@@ -6696,7 +6825,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>7</v>
       </c>
@@ -6722,7 +6851,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>7</v>
       </c>
@@ -6748,7 +6877,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>7</v>
       </c>
@@ -6774,7 +6903,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>7</v>
       </c>
@@ -6800,7 +6929,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>7</v>
       </c>
@@ -6826,7 +6955,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>7</v>
       </c>
@@ -6852,7 +6981,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>7</v>
       </c>
@@ -6878,7 +7007,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>7</v>
       </c>
@@ -6904,7 +7033,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>7</v>
       </c>
@@ -6930,7 +7059,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>7</v>
       </c>
@@ -6956,7 +7085,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>7</v>
       </c>
@@ -6982,7 +7111,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>7</v>
       </c>
@@ -7008,7 +7137,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>7</v>
       </c>
@@ -7034,7 +7163,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>7</v>
       </c>
@@ -7060,7 +7189,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>7</v>
       </c>
@@ -7086,7 +7215,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>7</v>
       </c>
@@ -7112,7 +7241,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>7</v>
       </c>
@@ -7138,7 +7267,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>7</v>
       </c>
@@ -7164,7 +7293,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>7</v>
       </c>
@@ -7190,7 +7319,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>7</v>
       </c>
@@ -7216,7 +7345,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>7</v>
       </c>
@@ -7242,7 +7371,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>7</v>
       </c>
@@ -7268,7 +7397,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>7</v>
       </c>
@@ -7294,7 +7423,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>7</v>
       </c>
@@ -7320,7 +7449,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>7</v>
       </c>
@@ -7346,7 +7475,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>7</v>
       </c>
@@ -7372,7 +7501,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>7</v>
       </c>
@@ -7398,7 +7527,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>7</v>
       </c>
@@ -7424,7 +7553,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>7</v>
       </c>
@@ -7450,7 +7579,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>7</v>
       </c>
@@ -7476,7 +7605,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>7</v>
       </c>
@@ -7502,7 +7631,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>7</v>
       </c>
@@ -7528,7 +7657,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>7</v>
       </c>
@@ -7554,7 +7683,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>7</v>
       </c>
@@ -7580,7 +7709,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>7</v>
       </c>
@@ -7606,7 +7735,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>7</v>
       </c>
@@ -7632,7 +7761,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>7</v>
       </c>
@@ -7658,7 +7787,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>7</v>
       </c>
@@ -7684,7 +7813,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>7</v>
       </c>
@@ -7710,7 +7839,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>7</v>
       </c>
@@ -7736,7 +7865,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>7</v>
       </c>
@@ -7762,7 +7891,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>7</v>
       </c>
@@ -7788,7 +7917,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>7</v>
       </c>
@@ -7814,7 +7943,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>7</v>
       </c>
@@ -7840,7 +7969,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>7</v>
       </c>
@@ -7866,7 +7995,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>7</v>
       </c>
@@ -7892,7 +8021,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>7</v>
       </c>
@@ -7918,7 +8047,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>7</v>
       </c>
@@ -7944,7 +8073,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>7</v>
       </c>
@@ -7970,7 +8099,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>7</v>
       </c>
@@ -7996,7 +8125,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>7</v>
       </c>
@@ -8022,7 +8151,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>7</v>
       </c>
@@ -8048,7 +8177,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>7</v>
       </c>
@@ -8074,7 +8203,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>7</v>
       </c>
@@ -8100,7 +8229,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>7</v>
       </c>
@@ -8126,7 +8255,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>7</v>
       </c>
@@ -8152,7 +8281,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>7</v>
       </c>
@@ -8178,7 +8307,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>7</v>
       </c>
@@ -8204,7 +8333,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>7</v>
       </c>
@@ -8230,7 +8359,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>7</v>
       </c>
@@ -8256,7 +8385,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>7</v>
       </c>
@@ -8282,7 +8411,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>7</v>
       </c>
@@ -8308,7 +8437,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>7</v>
       </c>
@@ -8334,7 +8463,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>7</v>
       </c>
@@ -8360,7 +8489,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>7</v>
       </c>
@@ -8386,7 +8515,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>7</v>
       </c>
@@ -8412,7 +8541,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>7</v>
       </c>
@@ -8438,7 +8567,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>7</v>
       </c>
@@ -8464,7 +8593,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>7</v>
       </c>
@@ -8490,7 +8619,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>7</v>
       </c>
@@ -8516,7 +8645,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>7</v>
       </c>
@@ -8542,7 +8671,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>7</v>
       </c>
@@ -8568,7 +8697,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>7</v>
       </c>
@@ -8594,7 +8723,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>7</v>
       </c>
@@ -8620,7 +8749,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>7</v>
       </c>
@@ -8646,7 +8775,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>7</v>
       </c>
@@ -8672,7 +8801,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>7</v>
       </c>
@@ -8698,7 +8827,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>7</v>
       </c>
@@ -8724,7 +8853,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>7</v>
       </c>
@@ -8750,7 +8879,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>7</v>
       </c>
@@ -8776,7 +8905,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>7</v>
       </c>
@@ -8802,7 +8931,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>7</v>
       </c>
@@ -8828,7 +8957,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>7</v>
       </c>
@@ -8854,7 +8983,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>7</v>
       </c>
@@ -8880,7 +9009,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>7</v>
       </c>
@@ -8906,7 +9035,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>7</v>
       </c>
@@ -8932,7 +9061,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>7</v>
       </c>
@@ -8958,7 +9087,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>7</v>
       </c>
@@ -8984,7 +9113,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>7</v>
       </c>
@@ -9010,7 +9139,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>7</v>
       </c>
@@ -9036,7 +9165,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>7</v>
       </c>
@@ -9062,7 +9191,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>7</v>
       </c>
@@ -9088,7 +9217,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>7</v>
       </c>
@@ -9114,7 +9243,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>7</v>
       </c>
@@ -9140,7 +9269,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>7</v>
       </c>
@@ -9166,7 +9295,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>7</v>
       </c>
@@ -9192,7 +9321,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>7</v>
       </c>
@@ -9218,7 +9347,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>7</v>
       </c>
@@ -9244,7 +9373,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>7</v>
       </c>
@@ -9270,7 +9399,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>7</v>
       </c>
@@ -9296,7 +9425,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>7</v>
       </c>
@@ -9322,7 +9451,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>7</v>
       </c>
@@ -9348,7 +9477,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>7</v>
       </c>
@@ -9374,7 +9503,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>7</v>
       </c>
@@ -9400,7 +9529,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>7</v>
       </c>
@@ -9426,7 +9555,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>7</v>
       </c>
@@ -9452,7 +9581,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>7</v>
       </c>
@@ -9478,7 +9607,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>7</v>
       </c>
@@ -9504,7 +9633,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>7</v>
       </c>
@@ -9530,7 +9659,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>7</v>
       </c>
@@ -9556,7 +9685,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>7</v>
       </c>
@@ -9582,7 +9711,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>7</v>
       </c>
@@ -9608,7 +9737,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>7</v>
       </c>
@@ -9634,7 +9763,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>7</v>
       </c>
@@ -9660,7 +9789,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>7</v>
       </c>
@@ -9686,7 +9815,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>7</v>
       </c>
@@ -9712,7 +9841,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>7</v>
       </c>
@@ -9738,7 +9867,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>7</v>
       </c>
@@ -9764,7 +9893,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>7</v>
       </c>
@@ -9790,7 +9919,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>7</v>
       </c>
@@ -9816,7 +9945,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>7</v>
       </c>
@@ -9842,7 +9971,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>7</v>
       </c>
@@ -9868,7 +9997,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>7</v>
       </c>
@@ -9894,7 +10023,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>7</v>
       </c>
@@ -9920,7 +10049,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>7</v>
       </c>
@@ -9946,7 +10075,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>7</v>
       </c>
@@ -9972,7 +10101,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>7</v>
       </c>
@@ -9998,7 +10127,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>7</v>
       </c>
@@ -10024,7 +10153,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>7</v>
       </c>
@@ -10050,7 +10179,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>7</v>
       </c>
@@ -10076,7 +10205,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>7</v>
       </c>
@@ -10102,7 +10231,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>7</v>
       </c>
@@ -10128,7 +10257,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>7</v>
       </c>
@@ -10154,7 +10283,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>7</v>
       </c>
@@ -10180,7 +10309,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>7</v>
       </c>
@@ -10206,7 +10335,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>7</v>
       </c>
@@ -10232,7 +10361,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>7</v>
       </c>
@@ -10258,7 +10387,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>7</v>
       </c>
@@ -10284,7 +10413,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>7</v>
       </c>
@@ -10310,7 +10439,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>7</v>
       </c>
@@ -10336,7 +10465,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>7</v>
       </c>
@@ -10362,7 +10491,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>7</v>
       </c>
@@ -10388,7 +10517,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>7</v>
       </c>
@@ -10414,7 +10543,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>7</v>
       </c>
@@ -10440,7 +10569,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>7</v>
       </c>
@@ -10466,7 +10595,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>7</v>
       </c>
@@ -10492,7 +10621,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>7</v>
       </c>
@@ -10518,7 +10647,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>7</v>
       </c>
@@ -10544,7 +10673,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>7</v>
       </c>
@@ -10570,7 +10699,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>7</v>
       </c>
@@ -10596,7 +10725,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>7</v>
       </c>
@@ -10622,7 +10751,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>7</v>
       </c>
@@ -10648,7 +10777,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>7</v>
       </c>
@@ -10674,7 +10803,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>7</v>
       </c>
@@ -10700,7 +10829,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>7</v>
       </c>
@@ -10726,7 +10855,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>7</v>
       </c>
@@ -10752,7 +10881,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>7</v>
       </c>
@@ -10778,7 +10907,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>7</v>
       </c>
@@ -10804,7 +10933,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>7</v>
       </c>
@@ -10830,7 +10959,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>7</v>
       </c>
@@ -10856,7 +10985,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>7</v>
       </c>
@@ -10882,7 +11011,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>7</v>
       </c>
@@ -10908,7 +11037,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>7</v>
       </c>
@@ -10934,7 +11063,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>7</v>
       </c>
@@ -10960,7 +11089,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>7</v>
       </c>
@@ -10986,7 +11115,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>7</v>
       </c>
@@ -11012,7 +11141,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>7</v>
       </c>
@@ -11038,7 +11167,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>7</v>
       </c>
@@ -11064,7 +11193,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>7</v>
       </c>
@@ -11090,7 +11219,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>7</v>
       </c>
@@ -11116,7 +11245,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>7</v>
       </c>
@@ -11142,7 +11271,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>7</v>
       </c>
@@ -11168,7 +11297,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>7</v>
       </c>
@@ -11194,7 +11323,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>7</v>
       </c>
@@ -11220,7 +11349,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>7</v>
       </c>
@@ -11246,7 +11375,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>7</v>
       </c>
@@ -11272,7 +11401,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>7</v>
       </c>
@@ -11298,7 +11427,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>7</v>
       </c>
@@ -11324,7 +11453,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>7</v>
       </c>
@@ -11350,7 +11479,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>7</v>
       </c>
@@ -11376,7 +11505,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>7</v>
       </c>
@@ -11402,7 +11531,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>7</v>
       </c>
@@ -11428,7 +11557,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>7</v>
       </c>
@@ -11454,7 +11583,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>7</v>
       </c>
@@ -11480,7 +11609,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>7</v>
       </c>
@@ -11506,7 +11635,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>7</v>
       </c>
@@ -11532,7 +11661,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>7</v>
       </c>
@@ -11558,7 +11687,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>7</v>
       </c>
@@ -11584,7 +11713,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>7</v>
       </c>
@@ -11610,7 +11739,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>7</v>
       </c>
@@ -11636,7 +11765,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>7</v>
       </c>
@@ -11662,7 +11791,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>7</v>
       </c>
@@ -11688,7 +11817,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>7</v>
       </c>
@@ -11714,7 +11843,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>7</v>
       </c>
@@ -11740,7 +11869,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>7</v>
       </c>
@@ -11766,7 +11895,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>7</v>
       </c>
@@ -11792,7 +11921,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>7</v>
       </c>
@@ -11818,7 +11947,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>7</v>
       </c>
@@ -11844,7 +11973,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>7</v>
       </c>
@@ -11870,7 +11999,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>7</v>
       </c>
@@ -11896,7 +12025,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>7</v>
       </c>
@@ -11922,7 +12051,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>7</v>
       </c>
@@ -11948,7 +12077,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>7</v>
       </c>
@@ -11974,7 +12103,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>7</v>
       </c>
@@ -12000,7 +12129,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>7</v>
       </c>
@@ -12026,7 +12155,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>7</v>
       </c>
@@ -12052,7 +12181,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>7</v>
       </c>
@@ -12078,7 +12207,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>7</v>
       </c>
@@ -12104,7 +12233,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>7</v>
       </c>
@@ -12130,7 +12259,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>7</v>
       </c>
@@ -12156,7 +12285,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>7</v>
       </c>
@@ -12182,7 +12311,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>7</v>
       </c>
@@ -12208,7 +12337,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>7</v>
       </c>
@@ -12234,7 +12363,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>7</v>
       </c>
@@ -12260,7 +12389,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>7</v>
       </c>
@@ -12286,7 +12415,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>7</v>
       </c>
@@ -12312,7 +12441,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>7</v>
       </c>
@@ -12338,7 +12467,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>7</v>
       </c>
@@ -12364,7 +12493,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>7</v>
       </c>
@@ -12390,7 +12519,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>7</v>
       </c>
@@ -12416,7 +12545,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>7</v>
       </c>
@@ -12442,7 +12571,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>7</v>
       </c>
@@ -12468,7 +12597,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>7</v>
       </c>
@@ -12494,7 +12623,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>7</v>
       </c>
@@ -12520,7 +12649,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>7</v>
       </c>
@@ -12546,7 +12675,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>7</v>
       </c>
@@ -12572,7 +12701,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>7</v>
       </c>
@@ -12598,7 +12727,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>7</v>
       </c>
@@ -12624,7 +12753,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>7</v>
       </c>
@@ -12650,7 +12779,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>7</v>
       </c>
@@ -12676,7 +12805,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>7</v>
       </c>
@@ -12702,7 +12831,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>7</v>
       </c>
@@ -12728,7 +12857,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>7</v>
       </c>
@@ -12754,7 +12883,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>7</v>
       </c>
@@ -12780,7 +12909,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>7</v>
       </c>
@@ -12806,7 +12935,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>7</v>
       </c>
@@ -12832,7 +12961,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>7</v>
       </c>
@@ -12858,7 +12987,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>7</v>
       </c>
@@ -12884,7 +13013,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>7</v>
       </c>
@@ -12910,7 +13039,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>7</v>
       </c>
@@ -12936,7 +13065,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>7</v>
       </c>
@@ -12962,7 +13091,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>7</v>
       </c>
@@ -12988,7 +13117,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>7</v>
       </c>
@@ -13014,7 +13143,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>7</v>
       </c>
@@ -13040,7 +13169,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>7</v>
       </c>
@@ -13066,7 +13195,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>7</v>
       </c>
@@ -13092,7 +13221,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>7</v>
       </c>
@@ -13118,7 +13247,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>7</v>
       </c>
@@ -13144,7 +13273,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>7</v>
       </c>
@@ -13170,7 +13299,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>7</v>
       </c>
@@ -13196,7 +13325,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>7</v>
       </c>
@@ -13222,7 +13351,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>7</v>
       </c>
@@ -13248,7 +13377,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>7</v>
       </c>
@@ -13274,7 +13403,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>7</v>
       </c>
@@ -13300,7 +13429,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>7</v>
       </c>
@@ -13326,7 +13455,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>7</v>
       </c>
@@ -13352,7 +13481,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>7</v>
       </c>
@@ -13378,7 +13507,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>7</v>
       </c>
@@ -13404,7 +13533,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>7</v>
       </c>
@@ -13430,7 +13559,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>7</v>
       </c>
@@ -13456,7 +13585,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>7</v>
       </c>
@@ -13482,7 +13611,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
         <v>7</v>
       </c>
@@ -13508,7 +13637,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
         <v>7</v>
       </c>
@@ -13534,7 +13663,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
         <v>7</v>
       </c>
@@ -13560,7 +13689,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
         <v>7</v>
       </c>
@@ -13586,7 +13715,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
         <v>7</v>
       </c>
@@ -13612,7 +13741,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
         <v>7</v>
       </c>
@@ -13638,7 +13767,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
         <v>7</v>
       </c>
@@ -13664,7 +13793,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
         <v>7</v>
       </c>
@@ -13690,7 +13819,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
         <v>7</v>
       </c>
@@ -13716,7 +13845,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
         <v>7</v>
       </c>
@@ -13742,7 +13871,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
         <v>7</v>
       </c>
@@ -13768,7 +13897,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
         <v>7</v>
       </c>
@@ -13794,7 +13923,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
         <v>7</v>
       </c>
@@ -13820,7 +13949,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
         <v>7</v>
       </c>
@@ -13846,7 +13975,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
         <v>7</v>
       </c>
@@ -13872,7 +14001,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
         <v>7</v>
       </c>
@@ -13898,7 +14027,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
         <v>7</v>
       </c>
@@ -13924,7 +14053,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
         <v>7</v>
       </c>
@@ -13950,7 +14079,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
         <v>7</v>
       </c>
@@ -13976,7 +14105,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
         <v>7</v>
       </c>
@@ -14002,7 +14131,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
         <v>7</v>
       </c>
@@ -14028,7 +14157,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
         <v>7</v>
       </c>
@@ -14054,7 +14183,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
         <v>7</v>
       </c>
@@ -14080,7 +14209,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
         <v>7</v>
       </c>
@@ -14106,7 +14235,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
         <v>7</v>
       </c>
@@ -14132,7 +14261,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>7</v>
       </c>
@@ -14158,7 +14287,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
         <v>7</v>
       </c>
@@ -14184,7 +14313,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
         <v>7</v>
       </c>
@@ -14210,7 +14339,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
         <v>7</v>
       </c>
@@ -14236,7 +14365,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
         <v>7</v>
       </c>
@@ -14262,7 +14391,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
         <v>7</v>
       </c>
@@ -14288,7 +14417,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
         <v>7</v>
       </c>
@@ -14314,7 +14443,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
         <v>7</v>
       </c>
@@ -14340,7 +14469,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
         <v>7</v>
       </c>
@@ -14366,7 +14495,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
         <v>7</v>
       </c>
@@ -14392,7 +14521,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
         <v>7</v>
       </c>
@@ -14418,7 +14547,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
         <v>7</v>
       </c>
@@ -14444,7 +14573,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
         <v>7</v>
       </c>
@@ -14470,7 +14599,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
         <v>7</v>
       </c>
@@ -14496,7 +14625,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
         <v>7</v>
       </c>
@@ -14522,7 +14651,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
         <v>7</v>
       </c>
@@ -14548,7 +14677,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
         <v>7</v>
       </c>
@@ -14574,7 +14703,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
         <v>7</v>
       </c>
@@ -14600,7 +14729,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
         <v>7</v>
       </c>
@@ -14626,7 +14755,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
         <v>7</v>
       </c>
@@ -14652,7 +14781,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
         <v>7</v>
       </c>
@@ -14678,7 +14807,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
         <v>7</v>
       </c>
@@ -14704,7 +14833,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
         <v>7</v>
       </c>
@@ -14730,7 +14859,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
         <v>7</v>
       </c>
@@ -14756,7 +14885,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
         <v>7</v>
       </c>
@@ -14782,7 +14911,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
         <v>7</v>
       </c>
@@ -14808,7 +14937,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
         <v>7</v>
       </c>
@@ -14834,7 +14963,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
         <v>7</v>
       </c>
@@ -14860,7 +14989,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
         <v>7</v>
       </c>
@@ -14886,7 +15015,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
         <v>7</v>
       </c>
@@ -14912,7 +15041,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
         <v>7</v>
       </c>
@@ -14938,7 +15067,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
         <v>7</v>
       </c>
@@ -14964,7 +15093,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
         <v>7</v>
       </c>
@@ -14990,7 +15119,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
         <v>7</v>
       </c>
@@ -15016,7 +15145,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
         <v>7</v>
       </c>
@@ -15042,7 +15171,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
         <v>7</v>
       </c>
@@ -15068,7 +15197,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
         <v>7</v>
       </c>
@@ -15094,7 +15223,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
         <v>7</v>
       </c>
@@ -15120,7 +15249,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
         <v>7</v>
       </c>
@@ -15146,7 +15275,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
         <v>7</v>
       </c>
@@ -15172,7 +15301,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
         <v>7</v>
       </c>
@@ -15198,7 +15327,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
         <v>7</v>
       </c>
@@ -15224,7 +15353,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
         <v>7</v>
       </c>
@@ -15250,7 +15379,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
         <v>7</v>
       </c>
@@ -15276,7 +15405,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
         <v>7</v>
       </c>
@@ -15302,7 +15431,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
         <v>7</v>
       </c>
@@ -15328,7 +15457,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
         <v>7</v>
       </c>
@@ -15354,7 +15483,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
         <v>7</v>
       </c>
@@ -15380,7 +15509,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
         <v>7</v>
       </c>
@@ -15406,7 +15535,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
         <v>7</v>
       </c>
@@ -15432,7 +15561,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
         <v>7</v>
       </c>
@@ -15458,7 +15587,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
         <v>7</v>
       </c>
@@ -15484,7 +15613,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
         <v>7</v>
       </c>
@@ -15510,7 +15639,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
         <v>7</v>
       </c>
@@ -15536,7 +15665,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
         <v>7</v>
       </c>
@@ -15562,7 +15691,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
         <v>7</v>
       </c>
@@ -15588,7 +15717,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
         <v>7</v>
       </c>
@@ -15614,7 +15743,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
         <v>7</v>
       </c>
@@ -15640,7 +15769,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
         <v>7</v>
       </c>
@@ -15666,7 +15795,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
         <v>7</v>
       </c>
@@ -15692,7 +15821,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
         <v>7</v>
       </c>
@@ -15718,7 +15847,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
         <v>7</v>
       </c>
@@ -15744,7 +15873,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
         <v>7</v>
       </c>
@@ -15770,7 +15899,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
         <v>7</v>
       </c>
@@ -15796,7 +15925,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
         <v>7</v>
       </c>
@@ -15822,7 +15951,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
         <v>7</v>
       </c>
@@ -15848,7 +15977,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
         <v>7</v>
       </c>
@@ -15874,7 +16003,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
         <v>7</v>
       </c>
@@ -15900,7 +16029,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
         <v>7</v>
       </c>
@@ -15926,7 +16055,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
         <v>7</v>
       </c>
@@ -15952,7 +16081,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
         <v>7</v>
       </c>
@@ -15978,7 +16107,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
         <v>7</v>
       </c>
@@ -16004,7 +16133,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
         <v>7</v>
       </c>
@@ -16030,7 +16159,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
         <v>7</v>
       </c>
@@ -16056,7 +16185,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
         <v>7</v>
       </c>
@@ -16082,7 +16211,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
         <v>7</v>
       </c>
@@ -16108,7 +16237,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
         <v>7</v>
       </c>
@@ -16134,7 +16263,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
         <v>7</v>
       </c>
@@ -16160,7 +16289,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
         <v>7</v>
       </c>
@@ -16186,7 +16315,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
         <v>7</v>
       </c>
@@ -16212,7 +16341,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
         <v>7</v>
       </c>
@@ -16238,7 +16367,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
         <v>7</v>
       </c>
@@ -16264,7 +16393,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
         <v>7</v>
       </c>
@@ -16290,7 +16419,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
         <v>7</v>
       </c>
@@ -16316,7 +16445,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
         <v>7</v>
       </c>
@@ -16342,7 +16471,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
         <v>7</v>
       </c>
@@ -16368,7 +16497,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
         <v>7</v>
       </c>
@@ -16394,7 +16523,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
         <v>7</v>
       </c>
@@ -16420,7 +16549,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
         <v>7</v>
       </c>
@@ -16446,7 +16575,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
         <v>7</v>
       </c>
@@ -16472,7 +16601,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
         <v>7</v>
       </c>
@@ -16498,7 +16627,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
         <v>7</v>
       </c>
@@ -16524,7 +16653,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
         <v>7</v>
       </c>
@@ -16550,7 +16679,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
         <v>7</v>
       </c>
@@ -16576,7 +16705,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
         <v>7</v>
       </c>
@@ -16602,7 +16731,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
         <v>7</v>
       </c>
@@ -16628,7 +16757,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
         <v>7</v>
       </c>
@@ -16654,7 +16783,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
         <v>7</v>
       </c>
@@ -16680,7 +16809,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
         <v>7</v>
       </c>
@@ -16706,7 +16835,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
         <v>7</v>
       </c>
@@ -16732,7 +16861,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
         <v>7</v>
       </c>
@@ -16758,7 +16887,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
         <v>7</v>
       </c>
@@ -16784,7 +16913,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
         <v>7</v>
       </c>
@@ -16810,7 +16939,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A497" s="3" t="s">
         <v>7</v>
       </c>
@@ -16836,7 +16965,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
         <v>7</v>
       </c>
@@ -16862,7 +16991,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499" s="3" t="s">
         <v>7</v>
       </c>
@@ -16888,7 +17017,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
         <v>7</v>
       </c>
@@ -16914,7 +17043,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A501" s="3" t="s">
         <v>7</v>
       </c>
@@ -16940,7 +17069,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
         <v>7</v>
       </c>
@@ -16966,7 +17095,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
         <v>7</v>
       </c>
@@ -16992,7 +17121,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
         <v>7</v>
       </c>
@@ -17018,7 +17147,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
         <v>7</v>
       </c>
@@ -17044,7 +17173,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
         <v>7</v>
       </c>
@@ -17070,7 +17199,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
         <v>7</v>
       </c>
@@ -17096,7 +17225,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
         <v>7</v>
       </c>
@@ -17122,7 +17251,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
         <v>7</v>
       </c>
@@ -17148,7 +17277,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
         <v>7</v>
       </c>
@@ -17174,7 +17303,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
         <v>7</v>
       </c>
@@ -17200,7 +17329,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
         <v>7</v>
       </c>
@@ -17226,7 +17355,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
         <v>7</v>
       </c>
@@ -17252,7 +17381,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A514" s="3" t="s">
         <v>7</v>
       </c>
@@ -17278,7 +17407,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
         <v>7</v>
       </c>
@@ -17304,7 +17433,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
         <v>7</v>
       </c>
@@ -17330,7 +17459,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
         <v>7</v>
       </c>
@@ -17356,7 +17485,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518" s="3" t="s">
         <v>7</v>
       </c>
@@ -17382,7 +17511,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A519" s="3" t="s">
         <v>7</v>
       </c>
@@ -17408,7 +17537,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A520" s="3" t="s">
         <v>7</v>
       </c>
@@ -17434,7 +17563,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
         <v>7</v>
       </c>
@@ -17460,7 +17589,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A522" s="3" t="s">
         <v>7</v>
       </c>
@@ -17486,7 +17615,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
         <v>7</v>
       </c>
@@ -17512,7 +17641,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
         <v>7</v>
       </c>
@@ -17538,7 +17667,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A525" s="3" t="s">
         <v>7</v>
       </c>
@@ -17564,7 +17693,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
         <v>7</v>
       </c>
@@ -17590,7 +17719,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A527" s="3" t="s">
         <v>7</v>
       </c>
@@ -17616,7 +17745,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528" s="3" t="s">
         <v>7</v>
       </c>
@@ -17642,7 +17771,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A529" s="3" t="s">
         <v>7</v>
       </c>
@@ -17668,7 +17797,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A530" s="3" t="s">
         <v>7</v>
       </c>
@@ -17694,7 +17823,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A531" s="3" t="s">
         <v>7</v>
       </c>
@@ -17720,7 +17849,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A532" s="3" t="s">
         <v>7</v>
       </c>
@@ -17746,7 +17875,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A533" s="3" t="s">
         <v>7</v>
       </c>
@@ -17772,7 +17901,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A534" s="3" t="s">
         <v>7</v>
       </c>
@@ -17798,7 +17927,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A535" s="3" t="s">
         <v>7</v>
       </c>
@@ -17824,7 +17953,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536" s="3" t="s">
         <v>7</v>
       </c>
@@ -17850,7 +17979,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A537" s="3" t="s">
         <v>7</v>
       </c>
@@ -17876,7 +18005,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A538" s="3" t="s">
         <v>7</v>
       </c>
@@ -17902,7 +18031,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A539" s="3" t="s">
         <v>7</v>
       </c>
@@ -17928,7 +18057,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540" s="3" t="s">
         <v>7</v>
       </c>
@@ -17954,7 +18083,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A541" s="3" t="s">
         <v>7</v>
       </c>
@@ -17980,7 +18109,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A542" s="3" t="s">
         <v>7</v>
       </c>
@@ -18006,7 +18135,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A543" s="3" t="s">
         <v>7</v>
       </c>
@@ -18032,7 +18161,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544" s="3" t="s">
         <v>7</v>
       </c>
@@ -18058,7 +18187,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A545" s="3" t="s">
         <v>7</v>
       </c>
@@ -18084,7 +18213,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A546" s="3" t="s">
         <v>7</v>
       </c>
@@ -18110,7 +18239,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A547" s="3" t="s">
         <v>7</v>
       </c>
@@ -18136,7 +18265,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A548" s="3" t="s">
         <v>7</v>
       </c>
@@ -18162,7 +18291,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A549" s="3" t="s">
         <v>7</v>
       </c>
@@ -18188,7 +18317,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A550" s="3" t="s">
         <v>7</v>
       </c>
@@ -18214,7 +18343,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A551" s="3" t="s">
         <v>7</v>
       </c>
@@ -18240,7 +18369,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A552" s="3" t="s">
         <v>7</v>
       </c>
@@ -18266,7 +18395,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A553" s="3" t="s">
         <v>7</v>
       </c>
@@ -18292,7 +18421,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A554" s="3" t="s">
         <v>7</v>
       </c>
@@ -18318,7 +18447,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A555" s="3" t="s">
         <v>7</v>
       </c>
@@ -18344,7 +18473,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A556" s="3" t="s">
         <v>7</v>
       </c>
@@ -18370,7 +18499,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A557" s="3" t="s">
         <v>7</v>
       </c>
@@ -18396,7 +18525,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A558" s="3" t="s">
         <v>7</v>
       </c>
@@ -18422,7 +18551,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A559" s="3" t="s">
         <v>7</v>
       </c>
@@ -18448,7 +18577,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A560" s="3" t="s">
         <v>7</v>
       </c>
@@ -18474,7 +18603,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A561" s="3" t="s">
         <v>7</v>
       </c>
@@ -18500,7 +18629,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A562" s="3" t="s">
         <v>7</v>
       </c>
@@ -18526,7 +18655,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A563" s="3" t="s">
         <v>7</v>
       </c>
@@ -18552,7 +18681,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A564" s="3" t="s">
         <v>7</v>
       </c>
@@ -18578,7 +18707,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A565" s="3" t="s">
         <v>7</v>
       </c>
@@ -18604,7 +18733,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A566" s="3" t="s">
         <v>7</v>
       </c>
@@ -18630,7 +18759,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A567" s="3" t="s">
         <v>7</v>
       </c>
@@ -18656,7 +18785,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A568" s="3" t="s">
         <v>7</v>
       </c>
@@ -18682,7 +18811,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A569" s="3" t="s">
         <v>7</v>
       </c>
@@ -18708,7 +18837,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570" s="3" t="s">
         <v>7</v>
       </c>
@@ -18734,7 +18863,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A571" s="3" t="s">
         <v>7</v>
       </c>
@@ -18760,7 +18889,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A572" s="3" t="s">
         <v>7</v>
       </c>
@@ -18786,7 +18915,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A573" s="3" t="s">
         <v>7</v>
       </c>
@@ -18812,7 +18941,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A574" s="3" t="s">
         <v>7</v>
       </c>
@@ -18838,7 +18967,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A575" s="3" t="s">
         <v>7</v>
       </c>
@@ -18864,7 +18993,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A576" s="3" t="s">
         <v>7</v>
       </c>
@@ -18890,7 +19019,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A577" s="3" t="s">
         <v>7</v>
       </c>
@@ -18916,7 +19045,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A578" s="3" t="s">
         <v>7</v>
       </c>
@@ -18942,7 +19071,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A579" s="3" t="s">
         <v>7</v>
       </c>
@@ -18968,7 +19097,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A580" s="3" t="s">
         <v>7</v>
       </c>
@@ -18994,7 +19123,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A581" s="3" t="s">
         <v>7</v>
       </c>
@@ -19020,7 +19149,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A582" s="3" t="s">
         <v>7</v>
       </c>
@@ -19046,7 +19175,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A583" s="3" t="s">
         <v>7</v>
       </c>
@@ -19072,7 +19201,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A584" s="3" t="s">
         <v>7</v>
       </c>
@@ -19098,7 +19227,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A585" s="3" t="s">
         <v>7</v>
       </c>
@@ -19124,7 +19253,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A586" s="3" t="s">
         <v>7</v>
       </c>
@@ -19150,7 +19279,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A587" s="3" t="s">
         <v>7</v>
       </c>
@@ -19176,7 +19305,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A588" s="3" t="s">
         <v>7</v>
       </c>
@@ -19202,7 +19331,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A589" s="3" t="s">
         <v>7</v>
       </c>
@@ -19228,7 +19357,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A590" s="3" t="s">
         <v>7</v>
       </c>
@@ -19254,7 +19383,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A591" s="3" t="s">
         <v>7</v>
       </c>
@@ -19280,7 +19409,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A592" s="3" t="s">
         <v>7</v>
       </c>
@@ -19306,7 +19435,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A593" s="3" t="s">
         <v>7</v>
       </c>
@@ -19332,7 +19461,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A594" s="3" t="s">
         <v>7</v>
       </c>
@@ -19358,7 +19487,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A595" s="3" t="s">
         <v>7</v>
       </c>
@@ -19384,7 +19513,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A596" s="3" t="s">
         <v>7</v>
       </c>
@@ -19410,7 +19539,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A597" s="3" t="s">
         <v>7</v>
       </c>
@@ -19436,7 +19565,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A598" s="3" t="s">
         <v>7</v>
       </c>
@@ -19462,7 +19591,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A599" s="3" t="s">
         <v>7</v>
       </c>
@@ -19488,7 +19617,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A600" s="3" t="s">
         <v>7</v>
       </c>
@@ -19514,7 +19643,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A601" s="3" t="s">
         <v>7</v>
       </c>
@@ -19540,7 +19669,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A602" s="3" t="s">
         <v>7</v>
       </c>
@@ -19566,7 +19695,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A603" s="3" t="s">
         <v>7</v>
       </c>
@@ -19592,7 +19721,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A604" s="3" t="s">
         <v>7</v>
       </c>
@@ -19618,7 +19747,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A605" s="3" t="s">
         <v>7</v>
       </c>
@@ -19644,7 +19773,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A606" s="3" t="s">
         <v>7</v>
       </c>
@@ -19670,7 +19799,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A607" s="3" t="s">
         <v>7</v>
       </c>
@@ -19696,7 +19825,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A608" s="3" t="s">
         <v>7</v>
       </c>
@@ -19722,7 +19851,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A609" s="3" t="s">
         <v>7</v>
       </c>
@@ -19748,7 +19877,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A610" s="3" t="s">
         <v>7</v>
       </c>
@@ -19774,7 +19903,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A611" s="3" t="s">
         <v>7</v>
       </c>
@@ -19800,7 +19929,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A612" s="3" t="s">
         <v>7</v>
       </c>
@@ -19826,7 +19955,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A613" s="3" t="s">
         <v>7</v>
       </c>
@@ -19852,7 +19981,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A614" s="3" t="s">
         <v>7</v>
       </c>
@@ -19878,7 +20007,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A615" s="3" t="s">
         <v>7</v>
       </c>
@@ -19904,7 +20033,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A616" s="3" t="s">
         <v>7</v>
       </c>
@@ -19930,7 +20059,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A617" s="3" t="s">
         <v>7</v>
       </c>
@@ -19956,7 +20085,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A618" s="3" t="s">
         <v>7</v>
       </c>
@@ -19982,7 +20111,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A619" s="3" t="s">
         <v>7</v>
       </c>
@@ -20008,7 +20137,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A620" s="3" t="s">
         <v>7</v>
       </c>
@@ -20034,7 +20163,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A621" s="3" t="s">
         <v>7</v>
       </c>
@@ -20060,7 +20189,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A622" s="3" t="s">
         <v>7</v>
       </c>
@@ -20086,7 +20215,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A623" s="3" t="s">
         <v>7</v>
       </c>
@@ -20112,7 +20241,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A624" s="3" t="s">
         <v>7</v>
       </c>
@@ -20138,7 +20267,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A625" s="3" t="s">
         <v>7</v>
       </c>
@@ -20164,7 +20293,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A626" s="3" t="s">
         <v>7</v>
       </c>
@@ -20190,7 +20319,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A627" s="3" t="s">
         <v>7</v>
       </c>
@@ -20216,7 +20345,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A628" s="3" t="s">
         <v>7</v>
       </c>
@@ -20242,7 +20371,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A629" s="3" t="s">
         <v>7</v>
       </c>
@@ -20268,7 +20397,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A630" s="3" t="s">
         <v>7</v>
       </c>
@@ -20294,7 +20423,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A631" s="3" t="s">
         <v>7</v>
       </c>
@@ -20320,7 +20449,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A632" s="3" t="s">
         <v>7</v>
       </c>
@@ -20346,7 +20475,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A633" s="3" t="s">
         <v>7</v>
       </c>
@@ -20372,7 +20501,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A634" s="3" t="s">
         <v>7</v>
       </c>
@@ -20398,7 +20527,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A635" s="3" t="s">
         <v>7</v>
       </c>
@@ -20424,7 +20553,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A636" s="3" t="s">
         <v>7</v>
       </c>
@@ -20450,7 +20579,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A637" s="3" t="s">
         <v>7</v>
       </c>
@@ -20476,7 +20605,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A638" s="3" t="s">
         <v>7</v>
       </c>
@@ -20502,7 +20631,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A639" s="3" t="s">
         <v>7</v>
       </c>
@@ -20528,7 +20657,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A640" s="3" t="s">
         <v>7</v>
       </c>
@@ -20554,7 +20683,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A641" s="3" t="s">
         <v>7</v>
       </c>
@@ -20580,7 +20709,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A642" s="3" t="s">
         <v>7</v>
       </c>
@@ -20606,7 +20735,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A643" s="3" t="s">
         <v>7</v>
       </c>
@@ -20632,7 +20761,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A644" s="3" t="s">
         <v>7</v>
       </c>
@@ -20658,7 +20787,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A645" s="3" t="s">
         <v>7</v>
       </c>
@@ -20684,7 +20813,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A646" s="3" t="s">
         <v>7</v>
       </c>
@@ -20710,7 +20839,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A647" s="3" t="s">
         <v>7</v>
       </c>
@@ -20736,7 +20865,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A648" s="3" t="s">
         <v>7</v>
       </c>
@@ -20762,7 +20891,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A649" s="3" t="s">
         <v>7</v>
       </c>
@@ -20788,7 +20917,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A650" s="3" t="s">
         <v>7</v>
       </c>
@@ -20814,7 +20943,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A651" s="3" t="s">
         <v>7</v>
       </c>
@@ -20840,7 +20969,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A652" s="3" t="s">
         <v>7</v>
       </c>
@@ -20866,7 +20995,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A653" s="3" t="s">
         <v>7</v>
       </c>
@@ -20892,7 +21021,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A654" s="3" t="s">
         <v>7</v>
       </c>
@@ -20918,7 +21047,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A655" s="3" t="s">
         <v>7</v>
       </c>
@@ -20944,7 +21073,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A656" s="3" t="s">
         <v>7</v>
       </c>
@@ -20970,7 +21099,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A657" s="3" t="s">
         <v>7</v>
       </c>
@@ -20996,7 +21125,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A658" s="3" t="s">
         <v>7</v>
       </c>
@@ -21022,7 +21151,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A659" s="3" t="s">
         <v>7</v>
       </c>
@@ -21048,7 +21177,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A660" s="3" t="s">
         <v>7</v>
       </c>
@@ -21074,7 +21203,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A661" s="3" t="s">
         <v>7</v>
       </c>
@@ -21100,7 +21229,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A662" s="3" t="s">
         <v>7</v>
       </c>
@@ -21126,7 +21255,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A663" s="3" t="s">
         <v>7</v>
       </c>
@@ -21152,7 +21281,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A664" s="3" t="s">
         <v>7</v>
       </c>
@@ -21178,7 +21307,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A665" s="3" t="s">
         <v>7</v>
       </c>
@@ -21204,7 +21333,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A666" s="3" t="s">
         <v>7</v>
       </c>
@@ -21230,7 +21359,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A667" s="3" t="s">
         <v>7</v>
       </c>
@@ -21256,7 +21385,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A668" s="3" t="s">
         <v>7</v>
       </c>
@@ -21282,7 +21411,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A669" s="3" t="s">
         <v>7</v>
       </c>
@@ -21308,7 +21437,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A670" s="3" t="s">
         <v>7</v>
       </c>
@@ -21334,7 +21463,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A671" s="3" t="s">
         <v>7</v>
       </c>
@@ -21360,7 +21489,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A672" s="3" t="s">
         <v>7</v>
       </c>
@@ -21386,7 +21515,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A673" s="3" t="s">
         <v>7</v>
       </c>
@@ -21412,7 +21541,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A674" s="3" t="s">
         <v>7</v>
       </c>
@@ -21438,7 +21567,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A675" s="3" t="s">
         <v>7</v>
       </c>
@@ -21464,7 +21593,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A676" s="3" t="s">
         <v>7</v>
       </c>
@@ -21490,7 +21619,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A677" s="3" t="s">
         <v>7</v>
       </c>
@@ -21516,7 +21645,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A678" s="3" t="s">
         <v>7</v>
       </c>
@@ -21542,7 +21671,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A679" s="3" t="s">
         <v>7</v>
       </c>
@@ -21568,7 +21697,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A680" s="3" t="s">
         <v>7</v>
       </c>
@@ -21594,7 +21723,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A681" s="3" t="s">
         <v>7</v>
       </c>
@@ -21620,7 +21749,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A682" s="3" t="s">
         <v>7</v>
       </c>
@@ -21646,7 +21775,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A683" s="3" t="s">
         <v>7</v>
       </c>
@@ -21672,7 +21801,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A684" s="3" t="s">
         <v>7</v>
       </c>
@@ -21698,7 +21827,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A685" s="3" t="s">
         <v>7</v>
       </c>
@@ -21724,7 +21853,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A686" s="3" t="s">
         <v>7</v>
       </c>
@@ -21750,7 +21879,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A687" s="3" t="s">
         <v>7</v>
       </c>
@@ -21776,7 +21905,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A688" s="3" t="s">
         <v>7</v>
       </c>
@@ -21802,7 +21931,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A689" s="3" t="s">
         <v>7</v>
       </c>
@@ -21828,7 +21957,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A690" s="3" t="s">
         <v>7</v>
       </c>
@@ -21854,7 +21983,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A691" s="3" t="s">
         <v>7</v>
       </c>
@@ -21880,7 +22009,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A692" s="3" t="s">
         <v>7</v>
       </c>
@@ -21906,7 +22035,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A693" s="3" t="s">
         <v>7</v>
       </c>
@@ -21932,7 +22061,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A694" s="3" t="s">
         <v>7</v>
       </c>
@@ -21958,7 +22087,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A695" s="3" t="s">
         <v>7</v>
       </c>
@@ -21984,7 +22113,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A696" s="3" t="s">
         <v>7</v>
       </c>
@@ -22010,7 +22139,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A697" s="3" t="s">
         <v>7</v>
       </c>
@@ -22036,7 +22165,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A698" s="3" t="s">
         <v>7</v>
       </c>
@@ -22062,7 +22191,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A699" s="3" t="s">
         <v>7</v>
       </c>
@@ -22088,7 +22217,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A700" s="3" t="s">
         <v>7</v>
       </c>
@@ -22114,7 +22243,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A701" s="3" t="s">
         <v>7</v>
       </c>
@@ -22140,7 +22269,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A702" s="3" t="s">
         <v>7</v>
       </c>
@@ -22166,7 +22295,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A703" s="3" t="s">
         <v>7</v>
       </c>
@@ -22192,7 +22321,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A704" s="3" t="s">
         <v>7</v>
       </c>
@@ -22218,7 +22347,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A705" s="3" t="s">
         <v>7</v>
       </c>
@@ -22244,7 +22373,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A706" s="3" t="s">
         <v>7</v>
       </c>
@@ -22270,7 +22399,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A707" s="3" t="s">
         <v>7</v>
       </c>
@@ -22296,7 +22425,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A708" s="3" t="s">
         <v>7</v>
       </c>
@@ -22322,7 +22451,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A709" s="3" t="s">
         <v>7</v>
       </c>
@@ -22348,7 +22477,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A710" s="3" t="s">
         <v>7</v>
       </c>
@@ -22374,7 +22503,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A711" s="3" t="s">
         <v>7</v>
       </c>
@@ -22400,7 +22529,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A712" s="3" t="s">
         <v>7</v>
       </c>
@@ -22426,7 +22555,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A713" s="3" t="s">
         <v>7</v>
       </c>
@@ -22452,7 +22581,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A714" s="3" t="s">
         <v>7</v>
       </c>
@@ -22478,7 +22607,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A715" s="3" t="s">
         <v>7</v>
       </c>
@@ -22504,7 +22633,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A716" s="3" t="s">
         <v>7</v>
       </c>
@@ -22530,7 +22659,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A717" s="3" t="s">
         <v>7</v>
       </c>
@@ -22556,7 +22685,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A718" s="3" t="s">
         <v>7</v>
       </c>
@@ -22582,7 +22711,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A719" s="3" t="s">
         <v>7</v>
       </c>
@@ -22608,7 +22737,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A720" s="3" t="s">
         <v>7</v>
       </c>
@@ -22634,7 +22763,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A721" s="3" t="s">
         <v>7</v>
       </c>
@@ -22660,7 +22789,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A722" s="3" t="s">
         <v>7</v>
       </c>
@@ -22686,7 +22815,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A723" s="3" t="s">
         <v>7</v>
       </c>
@@ -22712,7 +22841,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A724" s="3" t="s">
         <v>7</v>
       </c>
@@ -22738,7 +22867,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A725" s="3" t="s">
         <v>7</v>
       </c>
@@ -22764,7 +22893,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A726" s="3" t="s">
         <v>7</v>
       </c>
@@ -22790,7 +22919,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A727" s="3" t="s">
         <v>7</v>
       </c>
@@ -22816,7 +22945,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A728" s="3" t="s">
         <v>7</v>
       </c>
@@ -22842,7 +22971,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A729" s="3" t="s">
         <v>7</v>
       </c>
@@ -22868,7 +22997,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A730" s="3" t="s">
         <v>7</v>
       </c>
@@ -22894,7 +23023,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A731" s="3" t="s">
         <v>7</v>
       </c>
@@ -22920,7 +23049,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A732" s="3" t="s">
         <v>7</v>
       </c>
@@ -22946,7 +23075,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A733" s="3" t="s">
         <v>7</v>
       </c>
@@ -22972,7 +23101,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A734" s="3" t="s">
         <v>7</v>
       </c>
@@ -22998,7 +23127,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A735" s="3" t="s">
         <v>7</v>
       </c>
@@ -23024,7 +23153,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A736" s="3" t="s">
         <v>7</v>
       </c>
@@ -23050,7 +23179,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A737" s="3" t="s">
         <v>7</v>
       </c>
@@ -23076,7 +23205,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A738" s="3" t="s">
         <v>7</v>
       </c>
@@ -23102,7 +23231,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A739" s="3" t="s">
         <v>7</v>
       </c>
@@ -23128,7 +23257,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A740" s="3" t="s">
         <v>7</v>
       </c>
@@ -23154,7 +23283,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A741" s="3" t="s">
         <v>7</v>
       </c>
@@ -23180,7 +23309,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A742" s="3" t="s">
         <v>7</v>
       </c>
@@ -23206,7 +23335,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A743" s="3" t="s">
         <v>7</v>
       </c>
@@ -23232,7 +23361,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A744" s="3" t="s">
         <v>7</v>
       </c>
@@ -23258,7 +23387,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A745" s="3" t="s">
         <v>7</v>
       </c>
@@ -23284,7 +23413,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A746" s="3" t="s">
         <v>7</v>
       </c>
@@ -23310,7 +23439,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A747" s="3" t="s">
         <v>7</v>
       </c>
@@ -23336,7 +23465,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A748" s="3" t="s">
         <v>7</v>
       </c>
@@ -23362,7 +23491,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A749" s="3" t="s">
         <v>7</v>
       </c>
@@ -23388,7 +23517,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A750" s="3" t="s">
         <v>7</v>
       </c>
@@ -23414,7 +23543,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A751" s="3" t="s">
         <v>7</v>
       </c>
@@ -23440,7 +23569,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A752" s="3" t="s">
         <v>7</v>
       </c>
@@ -23466,7 +23595,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A753" s="3" t="s">
         <v>7</v>
       </c>
@@ -23492,7 +23621,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A754" s="3" t="s">
         <v>7</v>
       </c>
@@ -23518,7 +23647,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A755" s="3" t="s">
         <v>7</v>
       </c>
@@ -23544,7 +23673,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A756" s="3" t="s">
         <v>7</v>
       </c>
@@ -23570,7 +23699,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A757" s="3" t="s">
         <v>7</v>
       </c>
@@ -23596,7 +23725,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A758" s="3" t="s">
         <v>7</v>
       </c>
@@ -23622,7 +23751,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A759" s="3" t="s">
         <v>7</v>
       </c>
@@ -23648,7 +23777,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A760" s="3" t="s">
         <v>7</v>
       </c>
@@ -23674,7 +23803,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A761" s="3" t="s">
         <v>7</v>
       </c>
@@ -23700,7 +23829,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A762" s="3" t="s">
         <v>7</v>
       </c>
@@ -23726,7 +23855,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A763" s="3" t="s">
         <v>7</v>
       </c>
@@ -23752,7 +23881,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A764" s="3" t="s">
         <v>7</v>
       </c>
@@ -23778,7 +23907,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A765" s="3" t="s">
         <v>7</v>
       </c>
@@ -23804,7 +23933,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A766" s="3" t="s">
         <v>7</v>
       </c>
@@ -23830,7 +23959,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A767" s="3" t="s">
         <v>7</v>
       </c>
@@ -23856,7 +23985,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A768" s="3" t="s">
         <v>7</v>
       </c>
@@ -23882,7 +24011,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A769" s="3" t="s">
         <v>7</v>
       </c>
@@ -23908,7 +24037,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A770" s="3" t="s">
         <v>7</v>
       </c>
@@ -23934,7 +24063,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A771" s="3" t="s">
         <v>7</v>
       </c>
@@ -23960,7 +24089,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A772" s="3" t="s">
         <v>7</v>
       </c>
@@ -23986,7 +24115,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A773" s="3" t="s">
         <v>7</v>
       </c>
@@ -24012,7 +24141,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A774" s="3" t="s">
         <v>7</v>
       </c>
@@ -24038,7 +24167,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A775" s="3" t="s">
         <v>7</v>
       </c>
@@ -24064,7 +24193,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A776" s="3" t="s">
         <v>7</v>
       </c>
@@ -24090,7 +24219,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A777" s="3" t="s">
         <v>7</v>
       </c>
@@ -24116,7 +24245,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A778" s="3" t="s">
         <v>7</v>
       </c>
@@ -24142,7 +24271,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A779" s="3" t="s">
         <v>7</v>
       </c>
@@ -24168,7 +24297,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A780" s="3" t="s">
         <v>7</v>
       </c>
@@ -24194,7 +24323,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A781" s="3" t="s">
         <v>7</v>
       </c>
@@ -24220,7 +24349,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A782" s="3" t="s">
         <v>7</v>
       </c>
@@ -24246,7 +24375,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A783" s="3" t="s">
         <v>7</v>
       </c>
@@ -24272,7 +24401,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A784" s="3" t="s">
         <v>7</v>
       </c>
@@ -24298,7 +24427,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A785" s="3" t="s">
         <v>7</v>
       </c>
@@ -24324,7 +24453,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A786" s="3" t="s">
         <v>7</v>
       </c>
@@ -24350,7 +24479,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A787" s="3" t="s">
         <v>7</v>
       </c>
@@ -24376,7 +24505,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A788" s="3" t="s">
         <v>7</v>
       </c>
@@ -24402,7 +24531,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A789" s="3" t="s">
         <v>7</v>
       </c>
@@ -24428,7 +24557,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A790" s="3" t="s">
         <v>7</v>
       </c>
@@ -24454,7 +24583,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A791" s="3" t="s">
         <v>7</v>
       </c>
@@ -24480,7 +24609,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A792" s="3" t="s">
         <v>7</v>
       </c>
@@ -24506,7 +24635,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A793" s="3" t="s">
         <v>7</v>
       </c>
@@ -24532,7 +24661,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A794" s="3" t="s">
         <v>7</v>
       </c>
@@ -24558,7 +24687,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A795" s="3" t="s">
         <v>7</v>
       </c>
@@ -24584,7 +24713,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A796" s="3" t="s">
         <v>7</v>
       </c>
@@ -24610,7 +24739,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A797" s="3" t="s">
         <v>7</v>
       </c>
@@ -24636,7 +24765,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A798" s="3" t="s">
         <v>7</v>
       </c>
@@ -24662,7 +24791,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A799" s="3" t="s">
         <v>7</v>
       </c>
@@ -24688,7 +24817,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A800" s="3" t="s">
         <v>7</v>
       </c>
@@ -24714,7 +24843,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A801" s="3" t="s">
         <v>7</v>
       </c>
@@ -24740,7 +24869,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A802" s="3" t="s">
         <v>7</v>
       </c>
@@ -24766,7 +24895,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A803" s="3" t="s">
         <v>7</v>
       </c>
@@ -24792,7 +24921,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A804" s="3" t="s">
         <v>7</v>
       </c>
@@ -24818,7 +24947,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A805" s="3" t="s">
         <v>7</v>
       </c>
@@ -24844,7 +24973,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A806" s="3" t="s">
         <v>7</v>
       </c>
@@ -24870,7 +24999,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A807" s="3" t="s">
         <v>7</v>
       </c>
@@ -24896,7 +25025,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A808" s="3" t="s">
         <v>7</v>
       </c>
@@ -24922,7 +25051,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A809" s="3" t="s">
         <v>7</v>
       </c>
@@ -24948,7 +25077,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A810" s="3" t="s">
         <v>7</v>
       </c>
@@ -24974,7 +25103,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A811" s="3" t="s">
         <v>7</v>
       </c>
@@ -25000,7 +25129,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A812" s="3" t="s">
         <v>7</v>
       </c>
@@ -25026,7 +25155,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A813" s="3" t="s">
         <v>7</v>
       </c>
@@ -25052,7 +25181,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A814" s="3" t="s">
         <v>7</v>
       </c>
@@ -25078,7 +25207,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A815" s="3" t="s">
         <v>7</v>
       </c>
@@ -25104,7 +25233,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A816" s="3" t="s">
         <v>7</v>
       </c>
@@ -25130,7 +25259,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A817" s="3" t="s">
         <v>7</v>
       </c>
@@ -25156,7 +25285,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="818" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A818" s="3" t="s">
         <v>7</v>
       </c>
@@ -25182,7 +25311,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="819" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A819" s="3" t="s">
         <v>7</v>
       </c>
@@ -25208,7 +25337,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="820" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A820" s="3" t="s">
         <v>7</v>
       </c>
@@ -25234,7 +25363,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="821" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A821" s="3" t="s">
         <v>7</v>
       </c>
@@ -25260,7 +25389,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="822" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A822" s="3" t="s">
         <v>7</v>
       </c>
@@ -25286,7 +25415,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="823" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A823" s="3" t="s">
         <v>7</v>
       </c>
@@ -25312,7 +25441,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="824" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A824" s="3" t="s">
         <v>7</v>
       </c>
@@ -25338,7 +25467,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="825" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A825" s="3" t="s">
         <v>7</v>
       </c>
@@ -25364,7 +25493,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="826" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A826" s="3" t="s">
         <v>7</v>
       </c>
@@ -25390,7 +25519,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="827" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A827" s="3" t="s">
         <v>7</v>
       </c>
@@ -25416,7 +25545,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="828" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A828" s="3" t="s">
         <v>7</v>
       </c>
@@ -25442,7 +25571,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="829" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A829" s="3" t="s">
         <v>7</v>
       </c>
@@ -25468,7 +25597,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="830" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A830" s="3" t="s">
         <v>7</v>
       </c>
@@ -25494,7 +25623,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="831" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A831" s="3" t="s">
         <v>7</v>
       </c>
@@ -25520,7 +25649,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="832" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A832" s="3" t="s">
         <v>7</v>
       </c>
@@ -25546,7 +25675,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="833" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A833" s="3" t="s">
         <v>7</v>
       </c>
@@ -25572,7 +25701,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="834" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A834" s="3" t="s">
         <v>7</v>
       </c>
@@ -25598,7 +25727,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="835" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A835" s="3" t="s">
         <v>7</v>
       </c>
@@ -25624,7 +25753,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="836" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A836" s="3" t="s">
         <v>7</v>
       </c>
@@ -25650,7 +25779,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="837" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A837" s="3" t="s">
         <v>7</v>
       </c>
@@ -25676,7 +25805,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="838" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A838" s="3" t="s">
         <v>7</v>
       </c>
@@ -25702,7 +25831,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="839" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A839" s="3" t="s">
         <v>7</v>
       </c>
@@ -25728,7 +25857,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="840" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A840" s="3" t="s">
         <v>7</v>
       </c>
@@ -25754,7 +25883,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="841" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A841" s="3" t="s">
         <v>7</v>
       </c>
@@ -25780,7 +25909,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="842" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A842" s="3" t="s">
         <v>7</v>
       </c>
@@ -25806,7 +25935,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="843" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A843" s="3" t="s">
         <v>7</v>
       </c>
@@ -25832,7 +25961,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="844" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A844" s="3" t="s">
         <v>7</v>
       </c>
@@ -25858,7 +25987,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="845" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A845" s="3" t="s">
         <v>7</v>
       </c>
@@ -25884,7 +26013,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="846" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A846" s="3" t="s">
         <v>7</v>
       </c>
@@ -25910,7 +26039,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="847" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A847" s="3" t="s">
         <v>7</v>
       </c>
@@ -25936,7 +26065,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="848" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A848" s="3" t="s">
         <v>7</v>
       </c>
@@ -25962,7 +26091,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="849" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A849" s="3" t="s">
         <v>7</v>
       </c>
@@ -25988,7 +26117,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="850" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A850" s="3" t="s">
         <v>7</v>
       </c>
@@ -26014,7 +26143,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="851" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A851" s="3" t="s">
         <v>7</v>
       </c>
@@ -26040,7 +26169,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="852" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A852" s="3" t="s">
         <v>7</v>
       </c>
@@ -26066,7 +26195,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="853" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A853" s="3" t="s">
         <v>7</v>
       </c>
@@ -26092,7 +26221,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="854" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A854" s="3" t="s">
         <v>7</v>
       </c>
@@ -26118,7 +26247,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="855" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A855" s="3" t="s">
         <v>7</v>
       </c>
@@ -26144,7 +26273,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="856" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A856" s="3" t="s">
         <v>7</v>
       </c>
@@ -26170,7 +26299,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="857" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A857" s="3" t="s">
         <v>7</v>
       </c>
@@ -26196,7 +26325,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="858" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A858" s="3" t="s">
         <v>7</v>
       </c>
@@ -26222,7 +26351,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="859" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A859" s="3" t="s">
         <v>7</v>
       </c>
@@ -26248,7 +26377,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="860" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A860" s="3" t="s">
         <v>7</v>
       </c>
@@ -26274,7 +26403,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="861" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A861" s="3" t="s">
         <v>7</v>
       </c>
@@ -26300,7 +26429,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="862" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A862" s="3" t="s">
         <v>7</v>
       </c>
@@ -26326,7 +26455,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="863" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A863" s="3" t="s">
         <v>7</v>
       </c>
@@ -26352,7 +26481,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="864" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A864" s="3" t="s">
         <v>7</v>
       </c>
@@ -26378,7 +26507,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="865" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A865" s="3" t="s">
         <v>7</v>
       </c>
@@ -26404,7 +26533,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="866" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A866" s="3" t="s">
         <v>7</v>
       </c>
@@ -26430,7 +26559,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="867" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A867" s="3" t="s">
         <v>7</v>
       </c>
@@ -26456,7 +26585,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="868" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A868" s="3" t="s">
         <v>7</v>
       </c>
@@ -26482,7 +26611,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="869" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A869" s="3" t="s">
         <v>7</v>
       </c>
@@ -26508,7 +26637,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="870" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A870" s="3" t="s">
         <v>7</v>
       </c>
@@ -26534,7 +26663,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="871" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A871" s="3" t="s">
         <v>7</v>
       </c>
@@ -26560,7 +26689,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="872" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A872" s="3" t="s">
         <v>7</v>
       </c>
@@ -26586,7 +26715,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="873" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A873" s="3" t="s">
         <v>7</v>
       </c>
@@ -26612,7 +26741,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="874" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A874" s="3" t="s">
         <v>7</v>
       </c>
@@ -26638,7 +26767,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="875" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A875" s="3" t="s">
         <v>7</v>
       </c>
@@ -26664,7 +26793,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="876" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A876" s="3" t="s">
         <v>7</v>
       </c>
@@ -26690,7 +26819,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="877" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A877" s="3" t="s">
         <v>7</v>
       </c>
@@ -26716,7 +26845,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="878" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A878" s="3" t="s">
         <v>7</v>
       </c>
@@ -26742,7 +26871,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="879" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A879" s="3" t="s">
         <v>7</v>
       </c>
@@ -26768,7 +26897,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="880" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A880" s="3" t="s">
         <v>7</v>
       </c>
@@ -26794,7 +26923,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="881" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A881" s="3" t="s">
         <v>7</v>
       </c>
@@ -26820,7 +26949,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="882" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A882" s="3" t="s">
         <v>7</v>
       </c>
@@ -26846,7 +26975,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="883" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A883" s="3" t="s">
         <v>7</v>
       </c>
@@ -26872,7 +27001,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="884" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A884" s="3" t="s">
         <v>7</v>
       </c>
@@ -26898,7 +27027,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="885" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A885" s="3" t="s">
         <v>7</v>
       </c>
@@ -26924,7 +27053,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="886" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A886" s="3" t="s">
         <v>7</v>
       </c>
@@ -26950,7 +27079,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="887" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A887" s="3" t="s">
         <v>7</v>
       </c>
@@ -26976,7 +27105,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="888" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A888" s="3" t="s">
         <v>7</v>
       </c>
@@ -27002,7 +27131,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="889" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A889" s="3" t="s">
         <v>7</v>
       </c>
@@ -27028,7 +27157,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="890" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A890" s="3" t="s">
         <v>7</v>
       </c>
@@ -27054,7 +27183,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="891" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A891" s="3" t="s">
         <v>7</v>
       </c>
@@ -27080,7 +27209,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="892" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A892" s="3" t="s">
         <v>7</v>
       </c>
@@ -27106,7 +27235,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="893" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A893" s="3" t="s">
         <v>7</v>
       </c>
@@ -27132,7 +27261,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="894" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A894" s="3" t="s">
         <v>7</v>
       </c>
@@ -27158,7 +27287,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="895" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A895" s="3" t="s">
         <v>7</v>
       </c>
@@ -27184,7 +27313,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="896" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A896" s="3" t="s">
         <v>7</v>
       </c>
@@ -27210,7 +27339,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="897" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A897" s="3" t="s">
         <v>7</v>
       </c>
@@ -27236,7 +27365,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="898" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A898" s="3" t="s">
         <v>7</v>
       </c>
@@ -27262,7 +27391,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="899" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A899" s="3" t="s">
         <v>7</v>
       </c>
@@ -27288,7 +27417,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="900" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A900" s="3" t="s">
         <v>7</v>
       </c>
@@ -27314,7 +27443,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="901" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A901" s="3" t="s">
         <v>7</v>
       </c>
@@ -27340,7 +27469,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="902" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A902" s="3" t="s">
         <v>7</v>
       </c>
@@ -27366,7 +27495,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="903" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A903" s="3" t="s">
         <v>7</v>
       </c>
@@ -27392,7 +27521,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="904" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A904" s="3" t="s">
         <v>7</v>
       </c>
@@ -27418,7 +27547,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="905" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A905" s="3" t="s">
         <v>7</v>
       </c>
@@ -27444,7 +27573,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="906" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A906" s="3" t="s">
         <v>7</v>
       </c>
@@ -27470,7 +27599,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="907" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A907" s="3" t="s">
         <v>7</v>
       </c>
@@ -27496,7 +27625,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="908" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A908" s="3" t="s">
         <v>7</v>
       </c>
@@ -27522,7 +27651,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="909" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A909" s="3" t="s">
         <v>7</v>
       </c>
@@ -27548,7 +27677,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="910" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A910" s="3" t="s">
         <v>7</v>
       </c>
@@ -27574,7 +27703,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="911" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A911" s="3" t="s">
         <v>7</v>
       </c>
@@ -27600,7 +27729,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="912" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A912" s="3" t="s">
         <v>7</v>
       </c>
@@ -27626,7 +27755,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="913" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A913" s="3" t="s">
         <v>7</v>
       </c>
@@ -27652,7 +27781,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="914" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A914" s="3" t="s">
         <v>7</v>
       </c>
@@ -27678,7 +27807,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="915" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A915" s="3" t="s">
         <v>7</v>
       </c>
@@ -27704,7 +27833,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="916" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A916" s="3" t="s">
         <v>7</v>
       </c>
@@ -27730,7 +27859,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="917" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A917" s="3" t="s">
         <v>7</v>
       </c>
@@ -27756,7 +27885,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="918" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A918" s="3" t="s">
         <v>7</v>
       </c>
@@ -27782,7 +27911,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="919" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A919" s="3" t="s">
         <v>7</v>
       </c>
@@ -27808,7 +27937,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="920" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A920" s="3" t="s">
         <v>7</v>
       </c>
@@ -27834,7 +27963,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="921" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A921" s="3" t="s">
         <v>7</v>
       </c>
@@ -27860,10 +27989,26 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="922" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A922" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B922" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E922" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F922" s="4" t="s">
+        <v>256</v>
+      </c>
       <c r="G922" s="4" t="s">
-        <v>1022</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="H922" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="I922" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27872,4 +28017,363 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46454E84-FE32-4E0F-A866-F26A46F10511}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E12" t="s">
+        <v>797</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>408</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>407</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>354</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>380</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>252</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>253</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>